--- a/dhl.xlsx
+++ b/dhl.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">ÇIKIŞ TARİHİ</t>
   </si>
   <si>
-    <t xml:space="preserve">TRACKING NUMBER</t>
+    <t xml:space="preserve">trackıng number</t>
   </si>
   <si>
     <t xml:space="preserve">DHL</t>
@@ -148,7 +148,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -165,11 +165,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -185,10 +185,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,57 +194,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -368,20 +314,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:N201"/>
+  <dimension ref="B1:M201"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="8.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="7" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="6" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -400,14 +345,13 @@
       <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="6" t="s">
@@ -418,17 +362,16 @@
         <v>44812</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="6" t="n">
-        <v>8570159522</v>
+      <c r="F2" s="7" t="n">
+        <v>1111111</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="6" t="s">
@@ -439,17 +382,16 @@
         <v>44812</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="6" t="n">
-        <v>8570156265</v>
+      <c r="F3" s="7" t="n">
+        <v>111111</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="6" t="s">
@@ -460,17 +402,16 @@
         <v>44812</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="6" t="n">
-        <v>6748100413</v>
+      <c r="F4" s="7" t="n">
+        <v>111111111</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="6" t="s">
@@ -481,17 +422,16 @@
         <v>44812</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6" t="n">
-        <v>6748099643</v>
+      <c r="F5" s="7" t="n">
+        <v>11111111</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="6" t="s">
@@ -502,17 +442,16 @@
         <v>44812</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="6" t="n">
-        <v>8570153955</v>
+      <c r="F6" s="7" t="n">
+        <v>11111111</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="6" t="s">
@@ -523,17 +462,16 @@
         <v>44812</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6" t="n">
-        <v>8570147294</v>
+      <c r="F7" s="7" t="n">
+        <v>1111111</v>
       </c>
       <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="6" t="s">
@@ -544,17 +482,16 @@
         <v>44812</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="6" t="n">
-        <v>8570146550</v>
+      <c r="F8" s="7" t="n">
+        <v>1111111</v>
       </c>
       <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="6" t="s">
@@ -565,17 +502,16 @@
         <v>44812</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="6" t="n">
-        <v>6748089320</v>
+      <c r="F9" s="7" t="n">
+        <v>1111111</v>
       </c>
       <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
@@ -586,17 +522,16 @@
         <v>44812</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="6" t="n">
-        <v>6748087371</v>
+      <c r="F10" s="7" t="n">
+        <v>1111111</v>
       </c>
       <c r="G10" s="7"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="s">
@@ -607,17 +542,16 @@
         <v>44812</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="6" t="n">
-        <v>8570125421</v>
+      <c r="F11" s="7" t="n">
+        <v>111111111</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="s">
@@ -628,17 +562,16 @@
         <v>44812</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="n">
-        <v>8570121534</v>
+      <c r="F12" s="7" t="n">
+        <v>1111111</v>
       </c>
       <c r="G12" s="7"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="s">
@@ -649,17 +582,16 @@
         <v>44812</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6" t="n">
-        <v>6748063976</v>
+      <c r="F13" s="7" t="n">
+        <v>111111111</v>
       </c>
       <c r="G13" s="7"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="s">
@@ -670,17 +602,16 @@
         <v>44812</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="6" t="n">
-        <v>9483051163</v>
+      <c r="F14" s="7" t="n">
+        <v>1111111111</v>
       </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="s">
@@ -691,17 +622,14 @@
         <v>44812</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="6" t="n">
-        <v>9483046274</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="s">
@@ -712,17 +640,14 @@
         <v>44812</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="6" t="n">
-        <v>6748050956</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="s">
@@ -733,17 +658,14 @@
         <v>44812</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="6" t="n">
-        <v>9483041875</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="s">
@@ -754,17 +676,14 @@
         <v>44812</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="6" t="n">
-        <v>6748012445</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="s">
@@ -775,17 +694,14 @@
         <v>44812</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="6" t="n">
-        <v>6748009881</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="s">
@@ -796,17 +712,14 @@
         <v>44812</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="6" t="n">
-        <v>2207554112</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="s">
@@ -817,17 +730,14 @@
         <v>44812</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="6" t="n">
-        <v>6776850205</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
@@ -838,17 +748,14 @@
         <v>44812</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="6" t="n">
-        <v>6776836824</v>
-      </c>
+      <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
@@ -859,17 +766,14 @@
         <v>44812</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6" t="n">
-        <v>2207528805</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="s">
@@ -880,17 +784,14 @@
         <v>44812</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6" t="n">
-        <v>2207519580</v>
-      </c>
+      <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="6" t="s">
@@ -901,17 +802,14 @@
         <v>44812</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="6" t="n">
-        <v>2207518073</v>
-      </c>
+      <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="6" t="s">
@@ -922,17 +820,14 @@
         <v>44812</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="6" t="n">
-        <v>6776799573</v>
-      </c>
+      <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="6" t="s">
@@ -943,17 +838,14 @@
         <v>44812</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="6" t="n">
-        <v>6776755661</v>
-      </c>
+      <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="6" t="s">
@@ -964,17 +856,14 @@
         <v>44812</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6" t="n">
-        <v>6776752592</v>
-      </c>
+      <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="6" t="s">
@@ -985,17 +874,14 @@
         <v>44812</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="6" t="n">
-        <v>2207458050</v>
-      </c>
+      <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="6" t="s">
@@ -1006,17 +892,14 @@
         <v>44812</v>
       </c>
       <c r="E30" s="6"/>
-      <c r="F30" s="6" t="n">
-        <v>6776747095</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="6" t="s">
@@ -1027,17 +910,14 @@
         <v>44812</v>
       </c>
       <c r="E31" s="6"/>
-      <c r="F31" s="6" t="n">
-        <v>2207449031</v>
-      </c>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="6" t="s">
@@ -1048,17 +928,14 @@
         <v>44812</v>
       </c>
       <c r="E32" s="6"/>
-      <c r="F32" s="6" t="n">
-        <v>6776740736</v>
-      </c>
+      <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="6" t="s">
@@ -1069,17 +946,14 @@
         <v>44812</v>
       </c>
       <c r="E33" s="6"/>
-      <c r="F33" s="6" t="n">
-        <v>2207443556</v>
-      </c>
+      <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="6" t="s">
@@ -1090,17 +964,14 @@
         <v>44812</v>
       </c>
       <c r="E34" s="6"/>
-      <c r="F34" s="6" t="n">
-        <v>2207439662</v>
-      </c>
+      <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="6" t="s">
@@ -1111,17 +982,14 @@
         <v>44812</v>
       </c>
       <c r="E35" s="6"/>
-      <c r="F35" s="6" t="n">
-        <v>6776729816</v>
-      </c>
+      <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="6" t="s">
@@ -1132,17 +1000,14 @@
         <v>44812</v>
       </c>
       <c r="E36" s="6"/>
-      <c r="F36" s="6" t="n">
-        <v>2207435042</v>
-      </c>
+      <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="6" t="s">
@@ -1153,17 +1018,14 @@
         <v>44812</v>
       </c>
       <c r="E37" s="6"/>
-      <c r="F37" s="6" t="n">
-        <v>2207432986</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="6" t="s">
@@ -1174,17 +1036,14 @@
         <v>44812</v>
       </c>
       <c r="E38" s="6"/>
-      <c r="F38" s="6" t="n">
-        <v>2207422405</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="6" t="s">
@@ -1195,17 +1054,14 @@
         <v>44812</v>
       </c>
       <c r="E39" s="6"/>
-      <c r="F39" s="6" t="n">
-        <v>6776704826</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="6" t="s">
@@ -1216,17 +1072,14 @@
         <v>44812</v>
       </c>
       <c r="E40" s="6"/>
-      <c r="F40" s="6" t="n">
-        <v>2207414005</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="6" t="s">
@@ -1237,17 +1090,14 @@
         <v>44812</v>
       </c>
       <c r="E41" s="6"/>
-      <c r="F41" s="6" t="n">
-        <v>2207410962</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="6" t="s">
@@ -1258,17 +1108,14 @@
         <v>44812</v>
       </c>
       <c r="E42" s="6"/>
-      <c r="F42" s="6" t="n">
-        <v>2207399563</v>
-      </c>
+      <c r="F42" s="7"/>
       <c r="G42" s="7"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="6" t="s">
@@ -1279,17 +1126,14 @@
         <v>44812</v>
       </c>
       <c r="E43" s="6"/>
-      <c r="F43" s="6" t="n">
-        <v>6776675500</v>
-      </c>
+      <c r="F43" s="7"/>
       <c r="G43" s="7"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="6" t="s">
@@ -1300,17 +1144,14 @@
         <v>44812</v>
       </c>
       <c r="E44" s="6"/>
-      <c r="F44" s="6" t="n">
-        <v>2207388691</v>
-      </c>
+      <c r="F44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="6" t="s">
@@ -1321,17 +1162,14 @@
         <v>44812</v>
       </c>
       <c r="E45" s="6"/>
-      <c r="F45" s="6" t="n">
-        <v>2207387092</v>
-      </c>
+      <c r="F45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="6" t="s">
@@ -1342,17 +1180,14 @@
         <v>44812</v>
       </c>
       <c r="E46" s="6"/>
-      <c r="F46" s="6" t="n">
-        <v>2207384970</v>
-      </c>
+      <c r="F46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="8"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="6" t="s">
@@ -1363,17 +1198,14 @@
         <v>44812</v>
       </c>
       <c r="E47" s="6"/>
-      <c r="F47" s="6" t="n">
-        <v>6776663014</v>
-      </c>
+      <c r="F47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="8"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="6" t="s">
@@ -1384,17 +1216,14 @@
         <v>44812</v>
       </c>
       <c r="E48" s="6"/>
-      <c r="F48" s="6" t="n">
-        <v>6776606281</v>
-      </c>
+      <c r="F48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="8"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="6" t="s">
@@ -1405,17 +1234,14 @@
         <v>44812</v>
       </c>
       <c r="E49" s="6"/>
-      <c r="F49" s="6" t="n">
-        <v>6776602092</v>
-      </c>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="8"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="6" t="s">
@@ -1426,17 +1252,14 @@
         <v>44812</v>
       </c>
       <c r="E50" s="6"/>
-      <c r="F50" s="6" t="n">
-        <v>6776599093</v>
-      </c>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="8"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="6" t="s">
@@ -1447,17 +1270,14 @@
         <v>44812</v>
       </c>
       <c r="E51" s="6"/>
-      <c r="F51" s="6" t="n">
-        <v>6776595560</v>
-      </c>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="8"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="6" t="s">
@@ -1468,17 +1288,14 @@
         <v>44812</v>
       </c>
       <c r="E52" s="6"/>
-      <c r="F52" s="6" t="n">
-        <v>2207299290</v>
-      </c>
+      <c r="F52" s="7"/>
       <c r="G52" s="7"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="8"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="6" t="s">
@@ -1489,17 +1306,14 @@
         <v>44812</v>
       </c>
       <c r="E53" s="6"/>
-      <c r="F53" s="6" t="n">
-        <v>2207294003</v>
-      </c>
+      <c r="F53" s="7"/>
       <c r="G53" s="7"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="8"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="6" t="s">
@@ -1512,17 +1326,14 @@
         <v>44812</v>
       </c>
       <c r="E54" s="6"/>
-      <c r="F54" s="6" t="n">
-        <v>6776571771</v>
-      </c>
+      <c r="F54" s="7"/>
       <c r="G54" s="7"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="8"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="6"/>
       <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="6" t="s">
@@ -1533,17 +1344,14 @@
         <v>44812</v>
       </c>
       <c r="E55" s="6"/>
-      <c r="F55" s="6" t="n">
-        <v>6776569391</v>
-      </c>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="8"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="6"/>
       <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="6" t="s">
@@ -1554,17 +1362,14 @@
         <v>44812</v>
       </c>
       <c r="E56" s="6"/>
-      <c r="F56" s="6" t="n">
-        <v>6408446343</v>
-      </c>
+      <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="8"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="6"/>
       <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="6" t="s">
@@ -1575,17 +1380,14 @@
         <v>44812</v>
       </c>
       <c r="E57" s="6"/>
-      <c r="F57" s="6" t="n">
-        <v>6776547341</v>
-      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="8"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="6"/>
       <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="6" t="s">
@@ -1596,17 +1398,14 @@
         <v>44812</v>
       </c>
       <c r="E58" s="6"/>
-      <c r="F58" s="6" t="n">
-        <v>6408422311</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="8"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="6"/>
       <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="6" t="s">
@@ -1617,17 +1416,14 @@
         <v>44812</v>
       </c>
       <c r="E59" s="6"/>
-      <c r="F59" s="6" t="n">
-        <v>6408411240</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="8"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="6"/>
       <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="6" t="s">
@@ -1638,17 +1434,14 @@
         <v>44812</v>
       </c>
       <c r="E60" s="6"/>
-      <c r="F60" s="6" t="n">
-        <v>6776516456</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="8"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="6"/>
       <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="6" t="s">
@@ -1659,17 +1452,14 @@
         <v>44812</v>
       </c>
       <c r="E61" s="6"/>
-      <c r="F61" s="6" t="n">
-        <v>6776512094</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="8"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="6"/>
       <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="6" t="s">
@@ -1680,17 +1470,14 @@
         <v>44812</v>
       </c>
       <c r="E62" s="6"/>
-      <c r="F62" s="6" t="n">
-        <v>6776496786</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="8"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="6"/>
       <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="6" t="s">
@@ -1701,17 +1488,14 @@
         <v>44812</v>
       </c>
       <c r="E63" s="6"/>
-      <c r="F63" s="6" t="n">
-        <v>6776482904</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="8"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="6"/>
       <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="6" t="s">
@@ -1722,17 +1506,14 @@
         <v>44812</v>
       </c>
       <c r="E64" s="6"/>
-      <c r="F64" s="6" t="n">
-        <v>6776475985</v>
-      </c>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="8"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="6"/>
       <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="6" t="s">
@@ -1743,17 +1524,14 @@
         <v>44812</v>
       </c>
       <c r="E65" s="6"/>
-      <c r="F65" s="6" t="n">
-        <v>6408345193</v>
-      </c>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="8"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="6"/>
       <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="6" t="s">
@@ -1764,17 +1542,14 @@
         <v>44812</v>
       </c>
       <c r="E66" s="6"/>
-      <c r="F66" s="6" t="n">
-        <v>5008314824</v>
-      </c>
+      <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="8"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="6"/>
       <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="6" t="s">
@@ -1785,17 +1560,14 @@
         <v>44812</v>
       </c>
       <c r="E67" s="6"/>
-      <c r="F67" s="6" t="n">
-        <v>5008313295</v>
-      </c>
+      <c r="F67" s="7"/>
       <c r="G67" s="7"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="8"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="6"/>
       <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="6" t="s">
@@ -1806,17 +1578,14 @@
         <v>44812</v>
       </c>
       <c r="E68" s="6"/>
-      <c r="F68" s="6" t="n">
-        <v>5778831940</v>
-      </c>
+      <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="8"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="6"/>
       <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="6" t="s">
@@ -1827,17 +1596,14 @@
         <v>44812</v>
       </c>
       <c r="E69" s="6"/>
-      <c r="F69" s="6" t="n">
-        <v>5008302655</v>
-      </c>
+      <c r="F69" s="7"/>
       <c r="G69" s="7"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="8"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="6"/>
       <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="6" t="s">
@@ -1848,17 +1614,14 @@
         <v>44812</v>
       </c>
       <c r="E70" s="6"/>
-      <c r="F70" s="6" t="n">
-        <v>5778822420</v>
-      </c>
+      <c r="F70" s="7"/>
       <c r="G70" s="7"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="8"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="6"/>
       <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="6" t="s">
@@ -1869,17 +1632,14 @@
         <v>44812</v>
       </c>
       <c r="E71" s="6"/>
-      <c r="F71" s="6" t="n">
-        <v>5778821263</v>
-      </c>
+      <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="8"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="6"/>
       <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="6" t="s">
@@ -1890,17 +1650,14 @@
         <v>44812</v>
       </c>
       <c r="E72" s="6"/>
-      <c r="F72" s="6" t="n">
-        <v>5008295913</v>
-      </c>
+      <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="8"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="6"/>
       <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="6" t="s">
@@ -1911,17 +1668,14 @@
         <v>44812</v>
       </c>
       <c r="E73" s="6"/>
-      <c r="F73" s="6" t="n">
-        <v>5008294152</v>
-      </c>
+      <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="8"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="6"/>
       <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="6" t="s">
@@ -1932,17 +1686,14 @@
         <v>44812</v>
       </c>
       <c r="E74" s="6"/>
-      <c r="F74" s="6" t="n">
-        <v>5778815405</v>
-      </c>
+      <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="8"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="6"/>
       <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="6" t="s">
@@ -1953,17 +1704,14 @@
         <v>44812</v>
       </c>
       <c r="E75" s="6"/>
-      <c r="F75" s="6" t="n">
-        <v>5778813736</v>
-      </c>
+      <c r="F75" s="7"/>
       <c r="G75" s="7"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="8"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="6"/>
       <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="6" t="s">
@@ -1974,17 +1722,14 @@
         <v>44812</v>
       </c>
       <c r="E76" s="6"/>
-      <c r="F76" s="6" t="n">
-        <v>5008290652</v>
-      </c>
+      <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="8"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="6"/>
       <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="6" t="s">
@@ -1995,17 +1740,14 @@
         <v>44812</v>
       </c>
       <c r="E77" s="6"/>
-      <c r="F77" s="6" t="n">
-        <v>5008286496</v>
-      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="8"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="6"/>
       <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="6" t="s">
@@ -2018,17 +1760,14 @@
         <v>44812</v>
       </c>
       <c r="E78" s="6"/>
-      <c r="F78" s="6" t="n">
-        <v>5778806250</v>
-      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="8"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="6"/>
       <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="6" t="s">
@@ -2039,17 +1778,14 @@
         <v>44812</v>
       </c>
       <c r="E79" s="6"/>
-      <c r="F79" s="6" t="n">
-        <v>5778804010</v>
-      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="8"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="6"/>
       <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="6" t="s">
@@ -2060,17 +1796,14 @@
         <v>44812</v>
       </c>
       <c r="E80" s="6"/>
-      <c r="F80" s="6" t="n">
-        <v>5778802341</v>
-      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="8"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="6"/>
       <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="6" t="s">
@@ -2081,17 +1814,14 @@
         <v>44812</v>
       </c>
       <c r="E81" s="6"/>
-      <c r="F81" s="6" t="n">
-        <v>5008279220</v>
-      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="8"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="6"/>
       <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="6" t="s">
@@ -2102,17 +1832,14 @@
         <v>44812</v>
       </c>
       <c r="E82" s="6"/>
-      <c r="F82" s="6" t="n">
-        <v>5778799261</v>
-      </c>
+      <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="8"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="6"/>
       <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="6" t="s">
@@ -2123,17 +1850,14 @@
         <v>44812</v>
       </c>
       <c r="E83" s="6"/>
-      <c r="F83" s="6" t="n">
-        <v>9940581792</v>
-      </c>
+      <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="8"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="6"/>
       <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="6" t="s">
@@ -2144,17 +1868,14 @@
         <v>44812</v>
       </c>
       <c r="E84" s="6"/>
-      <c r="F84" s="6" t="n">
-        <v>3351995371</v>
-      </c>
+      <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="8"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="6"/>
       <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="6" t="s">
@@ -2165,17 +1886,14 @@
         <v>44812</v>
       </c>
       <c r="E85" s="6"/>
-      <c r="F85" s="6" t="n">
-        <v>3351994074</v>
-      </c>
+      <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="8"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="6"/>
       <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="6" t="s">
@@ -2186,17 +1904,14 @@
         <v>44812</v>
       </c>
       <c r="E86" s="6"/>
-      <c r="F86" s="6" t="n">
-        <v>5008273233</v>
-      </c>
+      <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="8"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="6"/>
       <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="6" t="s">
@@ -2207,17 +1922,14 @@
         <v>44812</v>
       </c>
       <c r="E87" s="6"/>
-      <c r="F87" s="6" t="n">
-        <v>3351992265</v>
-      </c>
+      <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="8"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="6"/>
       <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="6" t="s">
@@ -2228,17 +1940,14 @@
         <v>44812</v>
       </c>
       <c r="E88" s="6"/>
-      <c r="F88" s="6" t="n">
-        <v>3351990460</v>
-      </c>
+      <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="8"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="6"/>
       <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="6" t="s">
@@ -2249,17 +1958,14 @@
         <v>44813</v>
       </c>
       <c r="E89" s="6"/>
-      <c r="F89" s="6" t="n">
-        <v>5093332952</v>
-      </c>
+      <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="6"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="8"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="6"/>
       <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="6" t="s">
@@ -2270,17 +1976,14 @@
         <v>44813</v>
       </c>
       <c r="E90" s="6"/>
-      <c r="F90" s="6" t="n">
-        <v>5093330056</v>
-      </c>
+      <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="9"/>
+      <c r="H90" s="6"/>
       <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="8"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="6"/>
       <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="6" t="s">
@@ -2291,17 +1994,14 @@
         <v>44813</v>
       </c>
       <c r="E91" s="6"/>
-      <c r="F91" s="6" t="n">
-        <v>5093329146</v>
-      </c>
+      <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="9"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="8"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="6"/>
       <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="6" t="s">
@@ -2312,17 +2012,14 @@
         <v>44813</v>
       </c>
       <c r="E92" s="6"/>
-      <c r="F92" s="6" t="n">
-        <v>7495057824</v>
-      </c>
+      <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="9"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="8"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="6"/>
       <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="6" t="s">
@@ -2333,17 +2030,14 @@
         <v>44813</v>
       </c>
       <c r="E93" s="6"/>
-      <c r="F93" s="6" t="n">
-        <v>7495056914</v>
-      </c>
+      <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="9"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="8"/>
+      <c r="J93" s="7"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="6"/>
       <c r="M93" s="6"/>
-      <c r="N93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="6" t="s">
@@ -2354,17 +2048,14 @@
         <v>44813</v>
       </c>
       <c r="E94" s="6"/>
-      <c r="F94" s="6" t="n">
-        <v>7495055676</v>
-      </c>
+      <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="9"/>
+      <c r="H94" s="6"/>
       <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="8"/>
+      <c r="J94" s="7"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="6"/>
       <c r="M94" s="6"/>
-      <c r="N94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="6" t="s">
@@ -2375,17 +2066,14 @@
         <v>44813</v>
       </c>
       <c r="E95" s="6"/>
-      <c r="F95" s="6" t="n">
-        <v>7495051745</v>
-      </c>
-      <c r="G95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="8"/>
+      <c r="J95" s="7"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="6"/>
       <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="6" t="s">
@@ -2396,17 +2084,14 @@
         <v>44813</v>
       </c>
       <c r="E96" s="6"/>
-      <c r="F96" s="6" t="n">
-        <v>5093321715</v>
-      </c>
-      <c r="G96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="8"/>
+      <c r="J96" s="7"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="6"/>
       <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="6" t="s">
@@ -2417,17 +2102,14 @@
         <v>44813</v>
       </c>
       <c r="E97" s="6"/>
-      <c r="F97" s="6" t="n">
-        <v>7495047744</v>
-      </c>
-      <c r="G97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="6"/>
       <c r="H97" s="6"/>
       <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="8"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="8"/>
+      <c r="L97" s="6"/>
       <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="6" t="s">
@@ -2438,17 +2120,14 @@
         <v>44813</v>
       </c>
       <c r="E98" s="6"/>
-      <c r="F98" s="6" t="n">
-        <v>7494986096</v>
-      </c>
-      <c r="G98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="6"/>
       <c r="H98" s="6"/>
       <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="8"/>
+      <c r="J98" s="7"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="6"/>
       <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="6" t="s">
@@ -2459,17 +2138,14 @@
         <v>44813</v>
       </c>
       <c r="E99" s="6"/>
-      <c r="F99" s="6" t="n">
-        <v>5093252861</v>
-      </c>
-      <c r="G99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="6"/>
       <c r="H99" s="6"/>
       <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="8"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="6"/>
       <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="6" t="s">
@@ -2480,17 +2156,14 @@
         <v>44813</v>
       </c>
       <c r="E100" s="6"/>
-      <c r="F100" s="6" t="n">
-        <v>5093243050</v>
-      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7"/>
-      <c r="H100" s="9"/>
+      <c r="H100" s="6"/>
       <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="8"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="6"/>
       <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="6" t="s">
@@ -2501,17 +2174,14 @@
         <v>44813</v>
       </c>
       <c r="E101" s="6"/>
-      <c r="F101" s="6" t="n">
-        <v>7494970766</v>
-      </c>
+      <c r="F101" s="7"/>
       <c r="G101" s="7"/>
-      <c r="H101" s="9"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="8"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="8"/>
+      <c r="L101" s="6"/>
       <c r="M101" s="6"/>
-      <c r="N101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="6" t="s">
@@ -2522,17 +2192,14 @@
         <v>44813</v>
       </c>
       <c r="E102" s="6"/>
-      <c r="F102" s="6" t="n">
-        <v>7494935895</v>
-      </c>
+      <c r="F102" s="7"/>
       <c r="G102" s="7"/>
-      <c r="H102" s="9"/>
+      <c r="H102" s="6"/>
       <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="8"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="6"/>
       <c r="M102" s="6"/>
-      <c r="N102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="6" t="s">
@@ -2543,17 +2210,14 @@
         <v>44813</v>
       </c>
       <c r="E103" s="6"/>
-      <c r="F103" s="6" t="n">
-        <v>5093179114</v>
-      </c>
-      <c r="G103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="6"/>
       <c r="I103" s="6"/>
-      <c r="J103" s="6"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="8"/>
+      <c r="J103" s="7"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="6"/>
       <c r="M103" s="6"/>
-      <c r="N103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="6" t="s">
@@ -2564,17 +2228,14 @@
         <v>44813</v>
       </c>
       <c r="E104" s="6"/>
-      <c r="F104" s="6" t="n">
-        <v>5093164650</v>
-      </c>
-      <c r="G104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="6"/>
       <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="8"/>
+      <c r="J104" s="7"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="6"/>
       <c r="M104" s="6"/>
-      <c r="N104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="6" t="s">
@@ -2585,17 +2246,14 @@
         <v>44813</v>
       </c>
       <c r="E105" s="6"/>
-      <c r="F105" s="6" t="n">
-        <v>7494891736</v>
-      </c>
+      <c r="F105" s="7"/>
       <c r="G105" s="7"/>
-      <c r="H105" s="9"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="6"/>
-      <c r="J105" s="6"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="8"/>
+      <c r="J105" s="7"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="6"/>
       <c r="M105" s="6"/>
-      <c r="N105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="6" t="s">
@@ -2606,17 +2264,14 @@
         <v>44813</v>
       </c>
       <c r="E106" s="6"/>
-      <c r="F106" s="6" t="n">
-        <v>5093156924</v>
-      </c>
+      <c r="F106" s="7"/>
       <c r="G106" s="7"/>
-      <c r="H106" s="9"/>
+      <c r="H106" s="6"/>
       <c r="I106" s="6"/>
-      <c r="J106" s="6"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="8"/>
+      <c r="J106" s="7"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="6"/>
       <c r="M106" s="6"/>
-      <c r="N106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="6" t="s">
@@ -2627,17 +2282,14 @@
         <v>44813</v>
       </c>
       <c r="E107" s="6"/>
-      <c r="F107" s="6" t="n">
-        <v>7494886383</v>
-      </c>
+      <c r="F107" s="7"/>
       <c r="G107" s="7"/>
-      <c r="H107" s="9"/>
+      <c r="H107" s="6"/>
       <c r="I107" s="6"/>
-      <c r="J107" s="6"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="8"/>
+      <c r="J107" s="7"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="6"/>
       <c r="M107" s="6"/>
-      <c r="N107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="6" t="s">
@@ -2648,17 +2300,14 @@
         <v>44813</v>
       </c>
       <c r="E108" s="6"/>
-      <c r="F108" s="6" t="n">
-        <v>7494882301</v>
-      </c>
+      <c r="F108" s="7"/>
       <c r="G108" s="7"/>
-      <c r="H108" s="9"/>
+      <c r="H108" s="6"/>
       <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="8"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="6"/>
       <c r="M108" s="6"/>
-      <c r="N108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="6" t="s">
@@ -2669,17 +2318,14 @@
         <v>44813</v>
       </c>
       <c r="E109" s="6"/>
-      <c r="F109" s="6" t="n">
-        <v>5093134922</v>
-      </c>
+      <c r="F109" s="7"/>
       <c r="G109" s="7"/>
-      <c r="H109" s="9"/>
+      <c r="H109" s="6"/>
       <c r="I109" s="6"/>
-      <c r="J109" s="6"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="8"/>
+      <c r="J109" s="7"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="6"/>
       <c r="M109" s="6"/>
-      <c r="N109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="6" t="s">
@@ -2690,17 +2336,14 @@
         <v>44813</v>
       </c>
       <c r="E110" s="6"/>
-      <c r="F110" s="6" t="n">
-        <v>7494855082</v>
-      </c>
+      <c r="F110" s="7"/>
       <c r="G110" s="7"/>
-      <c r="H110" s="9"/>
+      <c r="H110" s="6"/>
       <c r="I110" s="6"/>
-      <c r="J110" s="6"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="8"/>
+      <c r="J110" s="7"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="6"/>
       <c r="M110" s="6"/>
-      <c r="N110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="6" t="s">
@@ -2711,17 +2354,14 @@
         <v>44813</v>
       </c>
       <c r="E111" s="6"/>
-      <c r="F111" s="6" t="n">
-        <v>7494852525</v>
-      </c>
+      <c r="F111" s="7"/>
       <c r="G111" s="7"/>
-      <c r="H111" s="9"/>
+      <c r="H111" s="6"/>
       <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="8"/>
+      <c r="J111" s="7"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="6"/>
       <c r="M111" s="6"/>
-      <c r="N111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="6" t="s">
@@ -2732,17 +2372,14 @@
         <v>44813</v>
       </c>
       <c r="E112" s="6"/>
-      <c r="F112" s="6" t="n">
-        <v>5093115554</v>
-      </c>
+      <c r="F112" s="7"/>
       <c r="G112" s="7"/>
-      <c r="H112" s="9"/>
+      <c r="H112" s="6"/>
       <c r="I112" s="6"/>
-      <c r="J112" s="6"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="8"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="6"/>
       <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="6" t="s">
@@ -2753,17 +2390,14 @@
         <v>44813</v>
       </c>
       <c r="E113" s="6"/>
-      <c r="F113" s="6" t="n">
-        <v>9240208563</v>
-      </c>
+      <c r="F113" s="7"/>
       <c r="G113" s="7"/>
-      <c r="H113" s="9"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="8"/>
+      <c r="J113" s="7"/>
+      <c r="K113" s="8"/>
+      <c r="L113" s="6"/>
       <c r="M113" s="6"/>
-      <c r="N113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="6" t="s">
@@ -2774,17 +2408,14 @@
         <v>44813</v>
       </c>
       <c r="E114" s="6"/>
-      <c r="F114" s="6" t="n">
-        <v>7494836764</v>
-      </c>
+      <c r="F114" s="7"/>
       <c r="G114" s="7"/>
-      <c r="H114" s="9"/>
+      <c r="H114" s="6"/>
       <c r="I114" s="6"/>
-      <c r="J114" s="6"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="8"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="6"/>
       <c r="M114" s="6"/>
-      <c r="N114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="6" t="s">
@@ -2795,17 +2426,14 @@
         <v>44813</v>
       </c>
       <c r="E115" s="6"/>
-      <c r="F115" s="6" t="n">
-        <v>7494833975</v>
-      </c>
+      <c r="F115" s="7"/>
       <c r="G115" s="7"/>
-      <c r="H115" s="9"/>
+      <c r="H115" s="6"/>
       <c r="I115" s="6"/>
-      <c r="J115" s="6"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="8"/>
+      <c r="J115" s="7"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="6"/>
       <c r="M115" s="6"/>
-      <c r="N115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="6" t="s">
@@ -2816,17 +2444,14 @@
         <v>44813</v>
       </c>
       <c r="E116" s="6"/>
-      <c r="F116" s="6" t="n">
-        <v>7494831422</v>
-      </c>
+      <c r="F116" s="7"/>
       <c r="G116" s="7"/>
-      <c r="H116" s="9"/>
+      <c r="H116" s="6"/>
       <c r="I116" s="6"/>
-      <c r="J116" s="6"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="8"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="6"/>
       <c r="M116" s="6"/>
-      <c r="N116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="6" t="s">
@@ -2837,17 +2462,14 @@
         <v>44813</v>
       </c>
       <c r="E117" s="6"/>
-      <c r="F117" s="6" t="n">
-        <v>7494827126</v>
-      </c>
+      <c r="F117" s="7"/>
       <c r="G117" s="7"/>
-      <c r="H117" s="9"/>
+      <c r="H117" s="6"/>
       <c r="I117" s="6"/>
-      <c r="J117" s="6"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="8"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="8"/>
+      <c r="L117" s="6"/>
       <c r="M117" s="6"/>
-      <c r="N117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="6" t="s">
@@ -2858,17 +2480,14 @@
         <v>44813</v>
       </c>
       <c r="E118" s="6"/>
-      <c r="F118" s="6" t="n">
-        <v>7494823346</v>
-      </c>
+      <c r="F118" s="7"/>
       <c r="G118" s="7"/>
-      <c r="H118" s="9"/>
+      <c r="H118" s="6"/>
       <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="8"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="6"/>
       <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="6" t="s">
@@ -2879,17 +2498,14 @@
         <v>44813</v>
       </c>
       <c r="E119" s="6"/>
-      <c r="F119" s="6" t="n">
-        <v>6335985961</v>
-      </c>
+      <c r="F119" s="7"/>
       <c r="G119" s="7"/>
-      <c r="H119" s="9"/>
+      <c r="H119" s="6"/>
       <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="8"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="6"/>
       <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="6" t="s">
@@ -2900,17 +2516,14 @@
         <v>44813</v>
       </c>
       <c r="E120" s="6"/>
-      <c r="F120" s="6" t="n">
-        <v>6335982166</v>
-      </c>
+      <c r="F120" s="7"/>
       <c r="G120" s="7"/>
-      <c r="H120" s="9"/>
+      <c r="H120" s="6"/>
       <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="8"/>
+      <c r="J120" s="7"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="6"/>
       <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="6" t="s">
@@ -2921,17 +2534,14 @@
         <v>44813</v>
       </c>
       <c r="E121" s="6"/>
-      <c r="F121" s="6" t="n">
-        <v>6335979845</v>
-      </c>
+      <c r="F121" s="7"/>
       <c r="G121" s="7"/>
-      <c r="H121" s="9"/>
+      <c r="H121" s="6"/>
       <c r="I121" s="6"/>
-      <c r="J121" s="6"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="8"/>
+      <c r="J121" s="7"/>
+      <c r="K121" s="8"/>
+      <c r="L121" s="6"/>
       <c r="M121" s="6"/>
-      <c r="N121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="6" t="s">
@@ -2942,17 +2552,14 @@
         <v>44813</v>
       </c>
       <c r="E122" s="6"/>
-      <c r="F122" s="6" t="n">
-        <v>6335976695</v>
-      </c>
+      <c r="F122" s="7"/>
       <c r="G122" s="7"/>
-      <c r="H122" s="9"/>
+      <c r="H122" s="6"/>
       <c r="I122" s="6"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="8"/>
+      <c r="J122" s="7"/>
+      <c r="K122" s="8"/>
+      <c r="L122" s="6"/>
       <c r="M122" s="6"/>
-      <c r="N122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="6" t="s">
@@ -2963,17 +2570,14 @@
         <v>44813</v>
       </c>
       <c r="E123" s="6"/>
-      <c r="F123" s="6" t="n">
-        <v>5385340774</v>
-      </c>
-      <c r="G123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="6"/>
       <c r="H123" s="6"/>
       <c r="I123" s="6"/>
-      <c r="J123" s="6"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="8"/>
+      <c r="J123" s="7"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="6"/>
       <c r="M123" s="6"/>
-      <c r="N123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="6" t="s">
@@ -2984,17 +2588,14 @@
         <v>44813</v>
       </c>
       <c r="E124" s="6"/>
-      <c r="F124" s="6" t="n">
-        <v>5385336585</v>
-      </c>
-      <c r="G124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="6"/>
       <c r="H124" s="6"/>
       <c r="I124" s="6"/>
-      <c r="J124" s="6"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="8"/>
+      <c r="J124" s="7"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="6"/>
       <c r="M124" s="6"/>
-      <c r="N124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="6" t="s">
@@ -3005,17 +2606,14 @@
         <v>44813</v>
       </c>
       <c r="E125" s="6"/>
-      <c r="F125" s="6" t="n">
-        <v>5385313113</v>
-      </c>
+      <c r="F125" s="7"/>
       <c r="G125" s="7"/>
-      <c r="H125" s="9"/>
+      <c r="H125" s="6"/>
       <c r="I125" s="6"/>
-      <c r="J125" s="6"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="8"/>
+      <c r="J125" s="7"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="6"/>
       <c r="M125" s="6"/>
-      <c r="N125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="6" t="s">
@@ -3026,17 +2624,14 @@
         <v>44813</v>
       </c>
       <c r="E126" s="6"/>
-      <c r="F126" s="6" t="n">
-        <v>5385306872</v>
-      </c>
+      <c r="F126" s="7"/>
       <c r="G126" s="7"/>
-      <c r="H126" s="9"/>
+      <c r="H126" s="6"/>
       <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="8"/>
+      <c r="J126" s="7"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="6"/>
       <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="6" t="s">
@@ -3047,17 +2642,14 @@
         <v>44813</v>
       </c>
       <c r="E127" s="6"/>
-      <c r="F127" s="6" t="n">
-        <v>6335927430</v>
-      </c>
+      <c r="F127" s="7"/>
       <c r="G127" s="7"/>
-      <c r="H127" s="9"/>
+      <c r="H127" s="6"/>
       <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="8"/>
+      <c r="J127" s="7"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="6"/>
       <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="6" t="s">
@@ -3068,17 +2660,14 @@
         <v>44813</v>
       </c>
       <c r="E128" s="6"/>
-      <c r="F128" s="6" t="n">
-        <v>6335920780</v>
-      </c>
+      <c r="F128" s="7"/>
       <c r="G128" s="7"/>
-      <c r="H128" s="9"/>
+      <c r="H128" s="6"/>
       <c r="I128" s="6"/>
-      <c r="J128" s="6"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="8"/>
+      <c r="J128" s="7"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="6"/>
       <c r="M128" s="6"/>
-      <c r="N128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="6" t="s">
@@ -3089,17 +2678,14 @@
         <v>44813</v>
       </c>
       <c r="E129" s="6"/>
-      <c r="F129" s="6" t="n">
-        <v>5385293760</v>
-      </c>
+      <c r="F129" s="7"/>
       <c r="G129" s="7"/>
-      <c r="H129" s="9"/>
+      <c r="H129" s="6"/>
       <c r="I129" s="6"/>
-      <c r="J129" s="6"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="8"/>
+      <c r="J129" s="7"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="6"/>
       <c r="M129" s="6"/>
-      <c r="N129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="6" t="s">
@@ -3110,17 +2696,14 @@
         <v>44813</v>
       </c>
       <c r="E130" s="6"/>
-      <c r="F130" s="6" t="n">
-        <v>5385286211</v>
-      </c>
+      <c r="F130" s="7"/>
       <c r="G130" s="7"/>
-      <c r="H130" s="9"/>
+      <c r="H130" s="6"/>
       <c r="I130" s="6"/>
-      <c r="J130" s="6"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="8"/>
+      <c r="J130" s="7"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="6"/>
       <c r="M130" s="6"/>
-      <c r="N130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="6" t="s">
@@ -3133,17 +2716,14 @@
         <v>44813</v>
       </c>
       <c r="E131" s="6"/>
-      <c r="F131" s="6" t="n">
-        <v>5385280412</v>
-      </c>
+      <c r="F131" s="7"/>
       <c r="G131" s="7"/>
-      <c r="H131" s="9"/>
+      <c r="H131" s="6"/>
       <c r="I131" s="6"/>
-      <c r="J131" s="6"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="8"/>
+      <c r="J131" s="7"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="6"/>
       <c r="M131" s="6"/>
-      <c r="N131" s="6"/>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="6" t="s">
@@ -3154,17 +2734,14 @@
         <v>44813</v>
       </c>
       <c r="E132" s="6"/>
-      <c r="F132" s="6" t="n">
-        <v>6335897271</v>
-      </c>
-      <c r="G132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="6"/>
       <c r="H132" s="6"/>
       <c r="I132" s="6"/>
-      <c r="J132" s="6"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="8"/>
+      <c r="J132" s="7"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="6"/>
       <c r="M132" s="6"/>
-      <c r="N132" s="6"/>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="6" t="s">
@@ -3175,17 +2752,14 @@
         <v>44813</v>
       </c>
       <c r="E133" s="6"/>
-      <c r="F133" s="6" t="n">
-        <v>6335893933</v>
-      </c>
-      <c r="G133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="6"/>
       <c r="H133" s="6"/>
       <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="8"/>
+      <c r="J133" s="7"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="6"/>
       <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="6" t="s">
@@ -3196,17 +2770,14 @@
         <v>44813</v>
       </c>
       <c r="E134" s="6"/>
-      <c r="F134" s="6" t="n">
-        <v>5385268755</v>
-      </c>
+      <c r="F134" s="7"/>
       <c r="G134" s="7"/>
-      <c r="H134" s="9"/>
+      <c r="H134" s="6"/>
       <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="8"/>
+      <c r="J134" s="7"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="6"/>
       <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="6" t="s">
@@ -3217,17 +2788,14 @@
         <v>44813</v>
       </c>
       <c r="E135" s="6"/>
-      <c r="F135" s="6" t="n">
-        <v>5385260930</v>
-      </c>
+      <c r="F135" s="7"/>
       <c r="G135" s="7"/>
-      <c r="H135" s="9"/>
+      <c r="H135" s="6"/>
       <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="8"/>
+      <c r="J135" s="7"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="6"/>
       <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="6" t="s">
@@ -3238,17 +2806,14 @@
         <v>44813</v>
       </c>
       <c r="E136" s="6"/>
-      <c r="F136" s="6" t="n">
-        <v>6335877763</v>
-      </c>
+      <c r="F136" s="7"/>
       <c r="G136" s="7"/>
-      <c r="H136" s="9"/>
+      <c r="H136" s="6"/>
       <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="8"/>
+      <c r="J136" s="7"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="6"/>
       <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="6" t="s">
@@ -3259,17 +2824,14 @@
         <v>44813</v>
       </c>
       <c r="E137" s="6"/>
-      <c r="F137" s="6" t="n">
-        <v>6335872653</v>
-      </c>
+      <c r="F137" s="7"/>
       <c r="G137" s="7"/>
-      <c r="H137" s="9"/>
+      <c r="H137" s="6"/>
       <c r="I137" s="6"/>
-      <c r="J137" s="6"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="8"/>
+      <c r="J137" s="7"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="6"/>
       <c r="M137" s="6"/>
-      <c r="N137" s="6"/>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="6" t="s">
@@ -3280,17 +2842,14 @@
         <v>44813</v>
       </c>
       <c r="E138" s="6"/>
-      <c r="F138" s="6" t="n">
-        <v>6335871216</v>
-      </c>
+      <c r="F138" s="7"/>
       <c r="G138" s="7"/>
-      <c r="H138" s="9"/>
+      <c r="H138" s="6"/>
       <c r="I138" s="6"/>
-      <c r="J138" s="6"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="8"/>
+      <c r="J138" s="7"/>
+      <c r="K138" s="8"/>
+      <c r="L138" s="6"/>
       <c r="M138" s="6"/>
-      <c r="N138" s="6"/>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="6" t="s">
@@ -3301,17 +2860,14 @@
         <v>44813</v>
       </c>
       <c r="E139" s="6"/>
-      <c r="F139" s="6" t="n">
-        <v>5385248304</v>
-      </c>
+      <c r="F139" s="7"/>
       <c r="G139" s="7"/>
-      <c r="H139" s="9"/>
+      <c r="H139" s="6"/>
       <c r="I139" s="6"/>
-      <c r="J139" s="6"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="8"/>
+      <c r="J139" s="7"/>
+      <c r="K139" s="8"/>
+      <c r="L139" s="6"/>
       <c r="M139" s="6"/>
-      <c r="N139" s="6"/>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="6" t="s">
@@ -3322,17 +2878,14 @@
         <v>44813</v>
       </c>
       <c r="E140" s="6"/>
-      <c r="F140" s="6" t="n">
-        <v>6335867322</v>
-      </c>
+      <c r="F140" s="7"/>
       <c r="G140" s="7"/>
-      <c r="H140" s="9"/>
+      <c r="H140" s="6"/>
       <c r="I140" s="6"/>
-      <c r="J140" s="6"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="8"/>
+      <c r="J140" s="7"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="6"/>
       <c r="M140" s="6"/>
-      <c r="N140" s="6"/>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="6" t="s">
@@ -3343,17 +2896,14 @@
         <v>44813</v>
       </c>
       <c r="E141" s="6"/>
-      <c r="F141" s="6" t="n">
-        <v>6335865535</v>
-      </c>
+      <c r="F141" s="7"/>
       <c r="G141" s="7"/>
-      <c r="H141" s="9"/>
+      <c r="H141" s="6"/>
       <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="8"/>
+      <c r="J141" s="7"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="6"/>
       <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="6" t="s">
@@ -3364,17 +2914,14 @@
         <v>44813</v>
       </c>
       <c r="E142" s="6"/>
-      <c r="F142" s="6" t="n">
-        <v>5385241665</v>
-      </c>
+      <c r="F142" s="7"/>
       <c r="G142" s="7"/>
-      <c r="H142" s="9"/>
+      <c r="H142" s="6"/>
       <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="8"/>
+      <c r="J142" s="7"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="6"/>
       <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="6" t="s">
@@ -3385,17 +2932,14 @@
         <v>44813</v>
       </c>
       <c r="E143" s="6"/>
-      <c r="F143" s="6" t="n">
-        <v>6335863111</v>
-      </c>
+      <c r="F143" s="7"/>
       <c r="G143" s="7"/>
-      <c r="H143" s="9"/>
+      <c r="H143" s="6"/>
       <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="8"/>
+      <c r="J143" s="7"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="6"/>
       <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="6" t="s">
@@ -3406,17 +2950,14 @@
         <v>44813</v>
       </c>
       <c r="E144" s="6"/>
-      <c r="F144" s="6" t="n">
-        <v>5385237476</v>
-      </c>
+      <c r="F144" s="7"/>
       <c r="G144" s="7"/>
-      <c r="H144" s="9"/>
+      <c r="H144" s="6"/>
       <c r="I144" s="6"/>
-      <c r="J144" s="6"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="8"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="6"/>
       <c r="M144" s="6"/>
-      <c r="N144" s="6"/>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="6" t="s">
@@ -3427,17 +2968,14 @@
         <v>44813</v>
       </c>
       <c r="E145" s="6"/>
-      <c r="F145" s="6" t="n">
-        <v>6335859445</v>
-      </c>
+      <c r="F145" s="7"/>
       <c r="G145" s="7"/>
-      <c r="H145" s="9"/>
+      <c r="H145" s="6"/>
       <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="7"/>
-      <c r="L145" s="8"/>
+      <c r="J145" s="7"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="6"/>
       <c r="M145" s="6"/>
-      <c r="N145" s="6"/>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="6" t="s">
@@ -3448,17 +2986,14 @@
         <v>44813</v>
       </c>
       <c r="E146" s="6"/>
-      <c r="F146" s="6" t="n">
-        <v>6335855831</v>
-      </c>
+      <c r="F146" s="7"/>
       <c r="G146" s="7"/>
-      <c r="H146" s="9"/>
+      <c r="H146" s="6"/>
       <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-      <c r="K146" s="7"/>
-      <c r="L146" s="8"/>
+      <c r="J146" s="7"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="6"/>
       <c r="M146" s="6"/>
-      <c r="N146" s="6"/>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="6" t="s">
@@ -3469,17 +3004,14 @@
         <v>44813</v>
       </c>
       <c r="E147" s="6"/>
-      <c r="F147" s="6" t="n">
-        <v>5385226980</v>
-      </c>
-      <c r="G147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="6"/>
       <c r="H147" s="6"/>
       <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="7"/>
-      <c r="L147" s="8"/>
+      <c r="J147" s="7"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="6"/>
       <c r="M147" s="6"/>
-      <c r="N147" s="6"/>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="6" t="s">
@@ -3490,17 +3022,14 @@
         <v>44813</v>
       </c>
       <c r="E148" s="6"/>
-      <c r="F148" s="6" t="n">
-        <v>5385224176</v>
-      </c>
-      <c r="G148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="6"/>
       <c r="H148" s="6"/>
       <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="7"/>
-      <c r="L148" s="8"/>
+      <c r="J148" s="7"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="6"/>
       <c r="M148" s="6"/>
-      <c r="N148" s="6"/>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="6" t="s">
@@ -3511,17 +3040,14 @@
         <v>44813</v>
       </c>
       <c r="E149" s="6"/>
-      <c r="F149" s="6" t="n">
-        <v>5385222275</v>
-      </c>
-      <c r="G149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="6"/>
       <c r="H149" s="6"/>
       <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="7"/>
-      <c r="L149" s="8"/>
+      <c r="J149" s="7"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="6"/>
       <c r="M149" s="6"/>
-      <c r="N149" s="6"/>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="6" t="s">
@@ -3532,17 +3058,14 @@
         <v>44813</v>
       </c>
       <c r="E150" s="6"/>
-      <c r="F150" s="6" t="n">
-        <v>6335842785</v>
-      </c>
-      <c r="G150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="6"/>
       <c r="H150" s="6"/>
       <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-      <c r="K150" s="7"/>
-      <c r="L150" s="8"/>
+      <c r="J150" s="7"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="6"/>
       <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="6" t="s">
@@ -3553,17 +3076,14 @@
         <v>44813</v>
       </c>
       <c r="E151" s="6"/>
-      <c r="F151" s="6" t="n">
-        <v>6335839904</v>
-      </c>
-      <c r="G151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="6"/>
       <c r="H151" s="6"/>
       <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="7"/>
-      <c r="L151" s="8"/>
+      <c r="J151" s="7"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="6"/>
       <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="6" t="s">
@@ -3574,17 +3094,14 @@
         <v>44813</v>
       </c>
       <c r="E152" s="6"/>
-      <c r="F152" s="6" t="n">
-        <v>5385216815</v>
-      </c>
-      <c r="G152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="6"/>
       <c r="H152" s="6"/>
       <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
-      <c r="K152" s="7"/>
-      <c r="L152" s="8"/>
+      <c r="J152" s="7"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="6"/>
       <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="6" t="s">
@@ -3595,17 +3112,14 @@
         <v>44813</v>
       </c>
       <c r="E153" s="6"/>
-      <c r="F153" s="6" t="n">
-        <v>5385214100</v>
-      </c>
+      <c r="F153" s="7"/>
       <c r="G153" s="7"/>
-      <c r="H153" s="9"/>
+      <c r="H153" s="6"/>
       <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
-      <c r="K153" s="7"/>
-      <c r="L153" s="8"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="6"/>
       <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="6" t="s">
@@ -3616,17 +3130,14 @@
         <v>44813</v>
       </c>
       <c r="E154" s="6"/>
-      <c r="F154" s="6" t="n">
-        <v>5385208555</v>
-      </c>
+      <c r="F154" s="7"/>
       <c r="G154" s="7"/>
-      <c r="H154" s="9"/>
+      <c r="H154" s="6"/>
       <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
-      <c r="K154" s="7"/>
-      <c r="L154" s="8"/>
+      <c r="J154" s="7"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="6"/>
       <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="6" t="s">
@@ -3637,17 +3148,14 @@
         <v>44813</v>
       </c>
       <c r="E155" s="6"/>
-      <c r="F155" s="6" t="n">
-        <v>5385198700</v>
-      </c>
+      <c r="F155" s="7"/>
       <c r="G155" s="7"/>
-      <c r="H155" s="9"/>
+      <c r="H155" s="6"/>
       <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
-      <c r="K155" s="7"/>
-      <c r="L155" s="8"/>
+      <c r="J155" s="7"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="6"/>
       <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="6" t="s">
@@ -3658,17 +3166,14 @@
         <v>44813</v>
       </c>
       <c r="E156" s="6"/>
-      <c r="F156" s="6" t="n">
-        <v>5385191346</v>
-      </c>
+      <c r="F156" s="7"/>
       <c r="G156" s="7"/>
-      <c r="H156" s="9"/>
+      <c r="H156" s="6"/>
       <c r="I156" s="6"/>
-      <c r="J156" s="6"/>
-      <c r="K156" s="7"/>
-      <c r="L156" s="8"/>
+      <c r="J156" s="7"/>
+      <c r="K156" s="8"/>
+      <c r="L156" s="6"/>
       <c r="M156" s="6"/>
-      <c r="N156" s="6"/>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="6" t="s">
@@ -3679,17 +3184,14 @@
         <v>44813</v>
       </c>
       <c r="E157" s="6"/>
-      <c r="F157" s="6" t="n">
-        <v>5385186796</v>
-      </c>
+      <c r="F157" s="7"/>
       <c r="G157" s="7"/>
-      <c r="H157" s="9"/>
+      <c r="H157" s="6"/>
       <c r="I157" s="6"/>
-      <c r="J157" s="6"/>
-      <c r="K157" s="7"/>
-      <c r="L157" s="8"/>
+      <c r="J157" s="7"/>
+      <c r="K157" s="8"/>
+      <c r="L157" s="6"/>
       <c r="M157" s="6"/>
-      <c r="N157" s="6"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="6" t="s">
@@ -3700,17 +3202,14 @@
         <v>44813</v>
       </c>
       <c r="E158" s="6"/>
-      <c r="F158" s="6" t="n">
-        <v>6335797753</v>
-      </c>
+      <c r="F158" s="7"/>
       <c r="G158" s="7"/>
-      <c r="H158" s="9"/>
+      <c r="H158" s="6"/>
       <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
-      <c r="K158" s="7"/>
-      <c r="L158" s="8"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="6"/>
       <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="6" t="s">
@@ -3721,17 +3220,14 @@
         <v>44813</v>
       </c>
       <c r="E159" s="6"/>
-      <c r="F159" s="6" t="n">
-        <v>6335793074</v>
-      </c>
+      <c r="F159" s="7"/>
       <c r="G159" s="7"/>
-      <c r="H159" s="9"/>
+      <c r="H159" s="6"/>
       <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="7"/>
-      <c r="L159" s="8"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="6"/>
       <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="6" t="s">
@@ -3742,17 +3238,14 @@
         <v>44813</v>
       </c>
       <c r="E160" s="6"/>
-      <c r="F160" s="6" t="n">
-        <v>5385172306</v>
-      </c>
+      <c r="F160" s="7"/>
       <c r="G160" s="7"/>
-      <c r="H160" s="9"/>
+      <c r="H160" s="6"/>
       <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="7"/>
-      <c r="L160" s="8"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="6"/>
       <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="6" t="s">
@@ -3763,17 +3256,14 @@
         <v>44813</v>
       </c>
       <c r="E161" s="6"/>
-      <c r="F161" s="6" t="n">
-        <v>5385170033</v>
-      </c>
+      <c r="F161" s="7"/>
       <c r="G161" s="7"/>
-      <c r="H161" s="9"/>
+      <c r="H161" s="6"/>
       <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
-      <c r="K161" s="7"/>
-      <c r="L161" s="8"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="6"/>
       <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="6" t="s">
@@ -3784,17 +3274,14 @@
         <v>44813</v>
       </c>
       <c r="E162" s="6"/>
-      <c r="F162" s="6" t="n">
-        <v>5385167001</v>
-      </c>
+      <c r="F162" s="7"/>
       <c r="G162" s="7"/>
-      <c r="H162" s="9"/>
+      <c r="H162" s="6"/>
       <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
-      <c r="K162" s="7"/>
-      <c r="L162" s="8"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="6"/>
       <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="6" t="s">
@@ -3805,17 +3292,14 @@
         <v>44813</v>
       </c>
       <c r="E163" s="6"/>
-      <c r="F163" s="6" t="n">
-        <v>5385164304</v>
-      </c>
+      <c r="F163" s="7"/>
       <c r="G163" s="7"/>
-      <c r="H163" s="9"/>
+      <c r="H163" s="6"/>
       <c r="I163" s="6"/>
-      <c r="J163" s="6"/>
-      <c r="K163" s="7"/>
-      <c r="L163" s="8"/>
+      <c r="J163" s="7"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="6"/>
       <c r="M163" s="6"/>
-      <c r="N163" s="6"/>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="6" t="s">
@@ -3826,17 +3310,14 @@
         <v>44813</v>
       </c>
       <c r="E164" s="6"/>
-      <c r="F164" s="6" t="n">
-        <v>5385161692</v>
-      </c>
+      <c r="F164" s="7"/>
       <c r="G164" s="7"/>
-      <c r="H164" s="9"/>
+      <c r="H164" s="6"/>
       <c r="I164" s="6"/>
-      <c r="J164" s="6"/>
-      <c r="K164" s="7"/>
-      <c r="L164" s="8"/>
+      <c r="J164" s="7"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="6"/>
       <c r="M164" s="6"/>
-      <c r="N164" s="6"/>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="6" t="s">
@@ -3847,17 +3328,14 @@
         <v>44813</v>
       </c>
       <c r="E165" s="6"/>
-      <c r="F165" s="6" t="n">
-        <v>5385154504</v>
-      </c>
-      <c r="G165" s="7"/>
+      <c r="F165" s="7"/>
+      <c r="G165" s="6"/>
       <c r="H165" s="6"/>
       <c r="I165" s="6"/>
-      <c r="J165" s="6"/>
-      <c r="K165" s="7"/>
-      <c r="L165" s="8"/>
+      <c r="J165" s="7"/>
+      <c r="K165" s="8"/>
+      <c r="L165" s="6"/>
       <c r="M165" s="6"/>
-      <c r="N165" s="6"/>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="6" t="s">
@@ -3868,17 +3346,14 @@
         <v>44813</v>
       </c>
       <c r="E166" s="6"/>
-      <c r="F166" s="6" t="n">
-        <v>6335757750</v>
-      </c>
-      <c r="G166" s="7"/>
+      <c r="F166" s="7"/>
+      <c r="G166" s="6"/>
       <c r="H166" s="6"/>
       <c r="I166" s="6"/>
-      <c r="J166" s="6"/>
-      <c r="K166" s="7"/>
-      <c r="L166" s="8"/>
+      <c r="J166" s="7"/>
+      <c r="K166" s="8"/>
+      <c r="L166" s="6"/>
       <c r="M166" s="6"/>
-      <c r="N166" s="6"/>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="6" t="s">
@@ -3889,17 +3364,14 @@
         <v>44813</v>
       </c>
       <c r="E167" s="6"/>
-      <c r="F167" s="6" t="n">
-        <v>6335755436</v>
-      </c>
+      <c r="F167" s="7"/>
       <c r="G167" s="7"/>
-      <c r="H167" s="9"/>
+      <c r="H167" s="6"/>
       <c r="I167" s="6"/>
-      <c r="J167" s="6"/>
-      <c r="K167" s="7"/>
-      <c r="L167" s="8"/>
+      <c r="J167" s="7"/>
+      <c r="K167" s="8"/>
+      <c r="L167" s="6"/>
       <c r="M167" s="6"/>
-      <c r="N167" s="6"/>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="6" t="s">
@@ -3910,17 +3382,14 @@
         <v>44813</v>
       </c>
       <c r="E168" s="6"/>
-      <c r="F168" s="6" t="n">
-        <v>6335752916</v>
-      </c>
+      <c r="F168" s="7"/>
       <c r="G168" s="7"/>
-      <c r="H168" s="9"/>
+      <c r="H168" s="6"/>
       <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
-      <c r="K168" s="7"/>
-      <c r="L168" s="8"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="8"/>
+      <c r="L168" s="6"/>
       <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="6" t="s">
@@ -3931,17 +3400,14 @@
         <v>44813</v>
       </c>
       <c r="E169" s="6"/>
-      <c r="F169" s="6" t="n">
-        <v>6335747493</v>
-      </c>
+      <c r="F169" s="7"/>
       <c r="G169" s="7"/>
-      <c r="H169" s="9"/>
+      <c r="H169" s="6"/>
       <c r="I169" s="6"/>
-      <c r="J169" s="6"/>
-      <c r="K169" s="7"/>
-      <c r="L169" s="8"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="8"/>
+      <c r="L169" s="6"/>
       <c r="M169" s="6"/>
-      <c r="N169" s="6"/>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="6" t="s">
@@ -3952,17 +3418,14 @@
         <v>44813</v>
       </c>
       <c r="E170" s="6"/>
-      <c r="F170" s="6" t="n">
-        <v>6335744074</v>
-      </c>
+      <c r="F170" s="7"/>
       <c r="G170" s="7"/>
-      <c r="H170" s="9"/>
+      <c r="H170" s="6"/>
       <c r="I170" s="6"/>
-      <c r="J170" s="6"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="8"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="8"/>
+      <c r="L170" s="6"/>
       <c r="M170" s="6"/>
-      <c r="N170" s="6"/>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="6" t="s">
@@ -3973,17 +3436,14 @@
         <v>44813</v>
       </c>
       <c r="E171" s="6"/>
-      <c r="F171" s="6" t="n">
-        <v>9243821904</v>
-      </c>
-      <c r="G171" s="7"/>
+      <c r="F171" s="7"/>
+      <c r="G171" s="6"/>
       <c r="H171" s="6"/>
       <c r="I171" s="6"/>
-      <c r="J171" s="6"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="8"/>
+      <c r="J171" s="7"/>
+      <c r="K171" s="8"/>
+      <c r="L171" s="6"/>
       <c r="M171" s="6"/>
-      <c r="N171" s="6"/>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="6" t="s">
@@ -3994,17 +3454,14 @@
         <v>44813</v>
       </c>
       <c r="E172" s="6"/>
-      <c r="F172" s="6" t="n">
-        <v>2121786682</v>
-      </c>
-      <c r="G172" s="7"/>
+      <c r="F172" s="7"/>
+      <c r="G172" s="6"/>
       <c r="H172" s="6"/>
       <c r="I172" s="6"/>
-      <c r="J172" s="6"/>
-      <c r="K172" s="7"/>
-      <c r="L172" s="8"/>
+      <c r="J172" s="7"/>
+      <c r="K172" s="8"/>
+      <c r="L172" s="6"/>
       <c r="M172" s="6"/>
-      <c r="N172" s="6"/>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="6" t="s">
@@ -4015,17 +3472,14 @@
         <v>44813</v>
       </c>
       <c r="E173" s="6"/>
-      <c r="F173" s="6" t="n">
-        <v>5646065692</v>
-      </c>
-      <c r="G173" s="7"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="6"/>
       <c r="H173" s="6"/>
       <c r="I173" s="6"/>
-      <c r="J173" s="6"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="8"/>
+      <c r="J173" s="7"/>
+      <c r="K173" s="8"/>
+      <c r="L173" s="6"/>
       <c r="M173" s="6"/>
-      <c r="N173" s="6"/>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="6" t="s">
@@ -4036,17 +3490,14 @@
         <v>44813</v>
       </c>
       <c r="E174" s="6"/>
-      <c r="F174" s="6" t="n">
-        <v>2121775773</v>
-      </c>
-      <c r="G174" s="7"/>
+      <c r="F174" s="7"/>
+      <c r="G174" s="6"/>
       <c r="H174" s="6"/>
       <c r="I174" s="6"/>
-      <c r="J174" s="6"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="8"/>
+      <c r="J174" s="7"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="6"/>
       <c r="M174" s="6"/>
-      <c r="N174" s="6"/>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="6" t="s">
@@ -4057,17 +3508,14 @@
         <v>44813</v>
       </c>
       <c r="E175" s="6"/>
-      <c r="F175" s="6" t="n">
-        <v>5646058913</v>
-      </c>
-      <c r="G175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="6"/>
       <c r="H175" s="6"/>
       <c r="I175" s="6"/>
-      <c r="J175" s="6"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="8"/>
+      <c r="J175" s="7"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="6"/>
       <c r="M175" s="6"/>
-      <c r="N175" s="6"/>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="6" t="s">
@@ -4078,17 +3526,14 @@
         <v>44813</v>
       </c>
       <c r="E176" s="6"/>
-      <c r="F176" s="6" t="n">
-        <v>5646055446</v>
-      </c>
-      <c r="G176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="6"/>
       <c r="H176" s="6"/>
       <c r="I176" s="6"/>
-      <c r="J176" s="6"/>
-      <c r="K176" s="7"/>
-      <c r="L176" s="8"/>
+      <c r="J176" s="7"/>
+      <c r="K176" s="8"/>
+      <c r="L176" s="6"/>
       <c r="M176" s="6"/>
-      <c r="N176" s="6"/>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="6" t="s">
@@ -4099,17 +3544,14 @@
         <v>44813</v>
       </c>
       <c r="E177" s="6"/>
-      <c r="F177" s="6" t="n">
-        <v>8570427110</v>
-      </c>
-      <c r="G177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="6"/>
       <c r="H177" s="6"/>
       <c r="I177" s="6"/>
-      <c r="J177" s="6"/>
-      <c r="K177" s="7"/>
-      <c r="L177" s="8"/>
+      <c r="J177" s="7"/>
+      <c r="K177" s="8"/>
+      <c r="L177" s="6"/>
       <c r="M177" s="6"/>
-      <c r="N177" s="6"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="6" t="s">
@@ -4120,17 +3562,14 @@
         <v>44813</v>
       </c>
       <c r="E178" s="6"/>
-      <c r="F178" s="6" t="n">
-        <v>8570423853</v>
-      </c>
-      <c r="G178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="6"/>
       <c r="H178" s="6"/>
       <c r="I178" s="6"/>
-      <c r="J178" s="6"/>
-      <c r="K178" s="7"/>
-      <c r="L178" s="8"/>
+      <c r="J178" s="7"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="6"/>
       <c r="M178" s="6"/>
-      <c r="N178" s="6"/>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="6" t="s">
@@ -4141,17 +3580,14 @@
         <v>44813</v>
       </c>
       <c r="E179" s="6"/>
-      <c r="F179" s="6" t="n">
-        <v>5646042426</v>
-      </c>
+      <c r="F179" s="7"/>
       <c r="G179" s="7"/>
-      <c r="H179" s="9"/>
+      <c r="H179" s="6"/>
       <c r="I179" s="6"/>
-      <c r="J179" s="6"/>
-      <c r="K179" s="7"/>
-      <c r="L179" s="8"/>
+      <c r="J179" s="7"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="6"/>
       <c r="M179" s="6"/>
-      <c r="N179" s="6"/>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="6" t="s">
@@ -4162,17 +3598,14 @@
         <v>44813</v>
       </c>
       <c r="E180" s="6"/>
-      <c r="F180" s="6" t="n">
-        <v>5646038650</v>
-      </c>
+      <c r="F180" s="7"/>
       <c r="G180" s="7"/>
-      <c r="H180" s="9"/>
+      <c r="H180" s="6"/>
       <c r="I180" s="6"/>
-      <c r="J180" s="6"/>
-      <c r="K180" s="7"/>
-      <c r="L180" s="8"/>
+      <c r="J180" s="7"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="6"/>
       <c r="M180" s="6"/>
-      <c r="N180" s="6"/>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="6" t="s">
@@ -4183,17 +3616,14 @@
         <v>44813</v>
       </c>
       <c r="E181" s="6"/>
-      <c r="F181" s="6" t="n">
-        <v>8570397861</v>
-      </c>
+      <c r="F181" s="7"/>
       <c r="G181" s="7"/>
-      <c r="H181" s="9"/>
+      <c r="H181" s="6"/>
       <c r="I181" s="6"/>
-      <c r="J181" s="6"/>
-      <c r="K181" s="7"/>
-      <c r="L181" s="8"/>
+      <c r="J181" s="7"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="6"/>
       <c r="M181" s="6"/>
-      <c r="N181" s="6"/>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="6" t="s">
@@ -4204,17 +3634,14 @@
         <v>44813</v>
       </c>
       <c r="E182" s="6"/>
-      <c r="F182" s="6" t="n">
-        <v>8570388411</v>
-      </c>
+      <c r="F182" s="7"/>
       <c r="G182" s="7"/>
-      <c r="H182" s="9"/>
+      <c r="H182" s="6"/>
       <c r="I182" s="6"/>
-      <c r="J182" s="6"/>
-      <c r="K182" s="7"/>
-      <c r="L182" s="8"/>
+      <c r="J182" s="7"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="6"/>
       <c r="M182" s="6"/>
-      <c r="N182" s="6"/>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="6" t="s">
@@ -4225,17 +3652,14 @@
         <v>44813</v>
       </c>
       <c r="E183" s="6"/>
-      <c r="F183" s="6" t="n">
-        <v>8570386333</v>
-      </c>
+      <c r="F183" s="7"/>
       <c r="G183" s="7"/>
-      <c r="H183" s="9"/>
+      <c r="H183" s="6"/>
       <c r="I183" s="6"/>
-      <c r="J183" s="6"/>
-      <c r="K183" s="7"/>
-      <c r="L183" s="8"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="8"/>
+      <c r="L183" s="6"/>
       <c r="M183" s="6"/>
-      <c r="N183" s="6"/>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="6" t="s">
@@ -4246,17 +3670,14 @@
         <v>44813</v>
       </c>
       <c r="E184" s="6"/>
-      <c r="F184" s="6" t="n">
-        <v>8570382564</v>
-      </c>
+      <c r="F184" s="7"/>
       <c r="G184" s="7"/>
-      <c r="H184" s="9"/>
+      <c r="H184" s="6"/>
       <c r="I184" s="6"/>
-      <c r="J184" s="6"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="8"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="8"/>
+      <c r="L184" s="6"/>
       <c r="M184" s="6"/>
-      <c r="N184" s="6"/>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="6" t="s">
@@ -4267,17 +3688,14 @@
         <v>44813</v>
       </c>
       <c r="E185" s="6"/>
-      <c r="F185" s="6" t="n">
-        <v>8570378456</v>
-      </c>
+      <c r="F185" s="7"/>
       <c r="G185" s="7"/>
-      <c r="H185" s="9"/>
+      <c r="H185" s="6"/>
       <c r="I185" s="6"/>
-      <c r="J185" s="6"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="8"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="8"/>
+      <c r="L185" s="6"/>
       <c r="M185" s="6"/>
-      <c r="N185" s="6"/>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="6" t="s">
@@ -4288,17 +3706,14 @@
         <v>44813</v>
       </c>
       <c r="E186" s="6"/>
-      <c r="F186" s="6" t="n">
-        <v>5645995880</v>
-      </c>
+      <c r="F186" s="7"/>
       <c r="G186" s="7"/>
-      <c r="H186" s="9"/>
+      <c r="H186" s="6"/>
       <c r="I186" s="6"/>
-      <c r="J186" s="6"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="8"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="6"/>
       <c r="M186" s="6"/>
-      <c r="N186" s="6"/>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="6" t="s">
@@ -4309,17 +3724,14 @@
         <v>44813</v>
       </c>
       <c r="E187" s="6"/>
-      <c r="F187" s="6" t="n">
-        <v>5645983361</v>
-      </c>
+      <c r="F187" s="7"/>
       <c r="G187" s="7"/>
-      <c r="H187" s="9"/>
+      <c r="H187" s="6"/>
       <c r="I187" s="6"/>
-      <c r="J187" s="6"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="8"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="8"/>
+      <c r="L187" s="6"/>
       <c r="M187" s="6"/>
-      <c r="N187" s="6"/>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="6" t="s">
@@ -4330,17 +3742,14 @@
         <v>44813</v>
       </c>
       <c r="E188" s="6"/>
-      <c r="F188" s="6" t="n">
-        <v>5645961086</v>
-      </c>
+      <c r="F188" s="7"/>
       <c r="G188" s="7"/>
-      <c r="H188" s="9"/>
+      <c r="H188" s="6"/>
       <c r="I188" s="6"/>
-      <c r="J188" s="6"/>
-      <c r="K188" s="7"/>
-      <c r="L188" s="8"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="6"/>
       <c r="M188" s="6"/>
-      <c r="N188" s="6"/>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="6" t="s">
@@ -4351,17 +3760,14 @@
         <v>44813</v>
       </c>
       <c r="E189" s="6"/>
-      <c r="F189" s="6" t="n">
-        <v>5645958754</v>
-      </c>
+      <c r="F189" s="7"/>
       <c r="G189" s="7"/>
-      <c r="H189" s="9"/>
+      <c r="H189" s="6"/>
       <c r="I189" s="6"/>
-      <c r="J189" s="6"/>
-      <c r="K189" s="7"/>
-      <c r="L189" s="8"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="8"/>
+      <c r="L189" s="6"/>
       <c r="M189" s="6"/>
-      <c r="N189" s="6"/>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="6" t="s">
@@ -4372,17 +3778,14 @@
         <v>44813</v>
       </c>
       <c r="E190" s="6"/>
-      <c r="F190" s="6" t="n">
-        <v>8570339934</v>
-      </c>
+      <c r="F190" s="7"/>
       <c r="G190" s="7"/>
-      <c r="H190" s="9"/>
+      <c r="H190" s="6"/>
       <c r="I190" s="6"/>
-      <c r="J190" s="6"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="8"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="8"/>
+      <c r="L190" s="6"/>
       <c r="M190" s="6"/>
-      <c r="N190" s="6"/>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="6" t="s">
@@ -4393,17 +3796,14 @@
         <v>44813</v>
       </c>
       <c r="E191" s="6"/>
-      <c r="F191" s="6" t="n">
-        <v>8570337182</v>
-      </c>
+      <c r="F191" s="7"/>
       <c r="G191" s="7"/>
-      <c r="H191" s="9"/>
+      <c r="H191" s="6"/>
       <c r="I191" s="6"/>
-      <c r="J191" s="6"/>
-      <c r="K191" s="7"/>
-      <c r="L191" s="8"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="8"/>
+      <c r="L191" s="6"/>
       <c r="M191" s="6"/>
-      <c r="N191" s="6"/>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="6" t="s">
@@ -4414,17 +3814,14 @@
         <v>44813</v>
       </c>
       <c r="E192" s="6"/>
-      <c r="F192" s="6" t="n">
-        <v>8570329692</v>
-      </c>
-      <c r="G192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="6"/>
       <c r="H192" s="6"/>
       <c r="I192" s="6"/>
-      <c r="J192" s="6"/>
-      <c r="K192" s="7"/>
-      <c r="L192" s="8"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="8"/>
+      <c r="L192" s="6"/>
       <c r="M192" s="6"/>
-      <c r="N192" s="6"/>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="6" t="s">
@@ -4435,17 +3832,14 @@
         <v>44813</v>
       </c>
       <c r="E193" s="6"/>
-      <c r="F193" s="6" t="n">
-        <v>5645944732</v>
-      </c>
-      <c r="G193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="6"/>
       <c r="H193" s="6"/>
       <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="7"/>
-      <c r="L193" s="8"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="8"/>
+      <c r="L193" s="6"/>
       <c r="M193" s="6"/>
-      <c r="N193" s="6"/>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="6" t="s">
@@ -4456,17 +3850,14 @@
         <v>44813</v>
       </c>
       <c r="E194" s="6"/>
-      <c r="F194" s="6" t="n">
-        <v>5645942050</v>
-      </c>
-      <c r="G194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="6"/>
       <c r="H194" s="6"/>
       <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="7"/>
-      <c r="L194" s="8"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="6"/>
       <c r="M194" s="6"/>
-      <c r="N194" s="6"/>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="6" t="s">
@@ -4477,17 +3868,14 @@
         <v>44813</v>
       </c>
       <c r="E195" s="6"/>
-      <c r="F195" s="6" t="n">
-        <v>5645938130</v>
-      </c>
-      <c r="G195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="6"/>
       <c r="H195" s="6"/>
       <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="7"/>
-      <c r="L195" s="8"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="8"/>
+      <c r="L195" s="6"/>
       <c r="M195" s="6"/>
-      <c r="N195" s="6"/>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="6" t="s">
@@ -4498,17 +3886,14 @@
         <v>44813</v>
       </c>
       <c r="E196" s="6"/>
-      <c r="F196" s="6" t="n">
-        <v>8570322681</v>
-      </c>
-      <c r="G196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="6"/>
       <c r="H196" s="6"/>
       <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="7"/>
-      <c r="L196" s="8"/>
+      <c r="J196" s="7"/>
+      <c r="K196" s="8"/>
+      <c r="L196" s="6"/>
       <c r="M196" s="6"/>
-      <c r="N196" s="6"/>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="6" t="s">
@@ -4519,17 +3904,14 @@
         <v>44813</v>
       </c>
       <c r="E197" s="6"/>
-      <c r="F197" s="6" t="n">
-        <v>5645933366</v>
-      </c>
-      <c r="G197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="6"/>
       <c r="H197" s="6"/>
       <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
-      <c r="K197" s="7"/>
-      <c r="L197" s="8"/>
+      <c r="J197" s="7"/>
+      <c r="K197" s="8"/>
+      <c r="L197" s="6"/>
       <c r="M197" s="6"/>
-      <c r="N197" s="6"/>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="6" t="s">
@@ -4540,17 +3922,14 @@
         <v>44813</v>
       </c>
       <c r="E198" s="6"/>
-      <c r="F198" s="6" t="n">
-        <v>8570316683</v>
-      </c>
-      <c r="G198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="6"/>
       <c r="H198" s="6"/>
       <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="7"/>
-      <c r="L198" s="8"/>
+      <c r="J198" s="7"/>
+      <c r="K198" s="8"/>
+      <c r="L198" s="6"/>
       <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="6" t="s">
@@ -4561,90 +3940,66 @@
         <v>44813</v>
       </c>
       <c r="E199" s="6"/>
-      <c r="F199" s="6" t="n">
-        <v>8570309705</v>
-      </c>
-      <c r="G199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="6"/>
       <c r="H199" s="6"/>
       <c r="I199" s="6"/>
-      <c r="J199" s="6"/>
-      <c r="K199" s="7"/>
-      <c r="L199" s="8"/>
+      <c r="J199" s="7"/>
+      <c r="K199" s="8"/>
+      <c r="L199" s="6"/>
       <c r="M199" s="6"/>
-      <c r="N199" s="6"/>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C200" s="9"/>
+      <c r="B200" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="7"/>
       <c r="D200" s="8" t="n">
         <v>44813</v>
       </c>
-      <c r="E200" s="9"/>
-      <c r="F200" s="6" t="n">
-        <v>6335659632</v>
-      </c>
-      <c r="G200" s="9"/>
-      <c r="H200" s="9"/>
-      <c r="I200" s="9"/>
-      <c r="J200" s="9"/>
-      <c r="K200" s="9"/>
-      <c r="L200" s="8"/>
-      <c r="M200" s="9"/>
-      <c r="N200" s="6"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="7"/>
+      <c r="H200" s="7"/>
+      <c r="I200" s="7"/>
+      <c r="J200" s="7"/>
+      <c r="K200" s="8"/>
+      <c r="L200" s="7"/>
+      <c r="M200" s="6"/>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C201" s="9"/>
+      <c r="B201" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="7"/>
       <c r="D201" s="8" t="n">
         <v>44813</v>
       </c>
-      <c r="E201" s="9"/>
-      <c r="F201" s="6" t="n">
-        <v>6335655351</v>
-      </c>
-      <c r="G201" s="9"/>
-      <c r="H201" s="9"/>
-      <c r="I201" s="9"/>
-      <c r="J201" s="9"/>
-      <c r="K201" s="9"/>
-      <c r="L201" s="8"/>
-      <c r="M201" s="9"/>
-      <c r="N201" s="6"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7"/>
+      <c r="G201" s="7"/>
+      <c r="H201" s="7"/>
+      <c r="I201" s="7"/>
+      <c r="J201" s="7"/>
+      <c r="K201" s="8"/>
+      <c r="L201" s="7"/>
+      <c r="M201" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N202:N1048157 N1:N88">
+  <conditionalFormatting sqref="M202:M1048157 M1:M88">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N89:N199">
+  <conditionalFormatting sqref="M89:M199">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N200:N201">
+  <conditionalFormatting sqref="M200:M201">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N200:N201">
+  <conditionalFormatting sqref="M200:M201">
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N200:N201">
+  <conditionalFormatting sqref="M200:M201">
     <cfRule type="duplicateValues" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F202:F1048157 F1:F88">
-    <cfRule type="duplicateValues" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F89:F199">
-    <cfRule type="duplicateValues" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F200:F201">
-    <cfRule type="duplicateValues" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F200:F201">
-    <cfRule type="duplicateValues" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F200:F201">
-    <cfRule type="duplicateValues" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
